--- a/data/raw/Stock List.xlsx
+++ b/data/raw/Stock List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin Moon\Dropbox\청심국제고 2학년 기록\개인생활\대회\Wharton Investment Competition\invo\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAA0E01-FF55-4C48-9B57-43F7A86CF102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E149AFDF-4818-4318-AAA9-54FC37FD0C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete List-By Exchange" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5698" uniqueCount="1155">
   <si>
     <t>Company Name</t>
   </si>
@@ -3493,13 +3493,16 @@
   <si>
     <t>Original</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSR.TO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3631,6 +3634,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3664,7 +3673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3703,12 +3712,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3776,12 +3800,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -31410,1542 +31439,1350 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBEB686-B1F8-42DE-832D-F8C4728C346A}">
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E248" sqref="E248"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="42"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="42"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="41"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="42"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="B4" s="41"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="42"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="B5" s="41"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="42"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="B6" s="41"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="42"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="42"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="42"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="B9" s="41"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="42"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="B10" s="41"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="42"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="42"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="42"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B13" s="41"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="42"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B14" s="41"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="42"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="B15" s="41"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="42"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="41"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="44" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="38"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="44" t="s">
         <v>251</v>
       </c>
       <c r="B22" s="38"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="44" t="s">
         <v>257</v>
       </c>
       <c r="B23" s="38"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="38"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="40"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="44" t="s">
         <v>268</v>
       </c>
       <c r="B26" s="38"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="38"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="39"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="44" t="s">
         <v>275</v>
       </c>
       <c r="B29" s="38"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="44" t="s">
         <v>279</v>
       </c>
       <c r="B30" s="38"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="44" t="s">
         <v>281</v>
       </c>
       <c r="B31" s="38"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="44" t="s">
         <v>283</v>
       </c>
       <c r="B32" s="38"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="44" t="s">
         <v>290</v>
       </c>
       <c r="B33" s="38"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="44" t="s">
         <v>292</v>
       </c>
       <c r="B34" s="38"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="44" t="s">
         <v>297</v>
       </c>
       <c r="B35" s="38"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="44" t="s">
         <v>299</v>
       </c>
       <c r="B36" s="38"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="44" t="s">
         <v>301</v>
       </c>
       <c r="B37" s="38"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="44" t="s">
         <v>307</v>
       </c>
       <c r="B38" s="38"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="44" t="s">
         <v>309</v>
       </c>
       <c r="B39" s="38"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="B40" s="40"/>
+      <c r="B40" s="38"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="44" t="s">
         <v>314</v>
       </c>
       <c r="B41" s="40"/>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="44" t="s">
         <v>316</v>
       </c>
       <c r="B42" s="40"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
-        <v>329</v>
+      <c r="A43" s="38" t="s">
+        <v>1154</v>
       </c>
       <c r="B43" s="40"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="38" t="s">
         <v>1041</v>
       </c>
       <c r="B44" s="40"/>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+    <row r="45" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
         <v>1043</v>
       </c>
       <c r="B45" s="40"/>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
-        <v>1044</v>
+    <row r="46" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
+        <v>1048</v>
       </c>
       <c r="B46" s="40"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
-        <v>1045</v>
+      <c r="A47" s="38" t="s">
+        <v>1054</v>
       </c>
       <c r="B47" s="40"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
-        <v>1046</v>
+      <c r="A48" s="44" t="s">
+        <v>1057</v>
       </c>
       <c r="B48" s="40"/>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
-        <v>1047</v>
+      <c r="A49" s="44" t="s">
+        <v>1058</v>
       </c>
       <c r="B49" s="40"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
-        <v>1048</v>
+      <c r="A50" s="44" t="s">
+        <v>1059</v>
       </c>
       <c r="B50" s="40"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
-        <v>1049</v>
+      <c r="A51" s="44" t="s">
+        <v>1060</v>
       </c>
       <c r="B51" s="40"/>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
-        <v>1050</v>
+    <row r="52" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
+        <v>1062</v>
       </c>
       <c r="B52" s="40"/>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
-        <v>1051</v>
+      <c r="A53" s="43" t="s">
+        <v>738</v>
       </c>
       <c r="B53" s="40"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="28" t="s">
-        <v>1052</v>
+      <c r="A54" s="44" t="s">
+        <v>740</v>
       </c>
       <c r="B54" s="40"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
-        <v>1053</v>
+      <c r="A55" s="44" t="s">
+        <v>742</v>
       </c>
       <c r="B55" s="40"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
-        <v>1054</v>
+      <c r="A56" s="44" t="s">
+        <v>744</v>
       </c>
       <c r="B56" s="40"/>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
-        <v>1055</v>
+      <c r="A57" s="44" t="s">
+        <v>750</v>
       </c>
       <c r="B57" s="40"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
-        <v>1056</v>
+      <c r="A58" s="44" t="s">
+        <v>752</v>
       </c>
       <c r="B58" s="40"/>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
-        <v>1057</v>
+      <c r="A59" s="44" t="s">
+        <v>754</v>
       </c>
       <c r="B59" s="40"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
-        <v>1058</v>
+      <c r="A60" s="44" t="s">
+        <v>756</v>
       </c>
       <c r="B60" s="40"/>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
-        <v>1059</v>
+      <c r="A61" s="44" t="s">
+        <v>762</v>
       </c>
       <c r="B61" s="40"/>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
-        <v>1060</v>
+      <c r="A62" s="44" t="s">
+        <v>764</v>
       </c>
       <c r="B62" s="40"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
-        <v>222</v>
+      <c r="A63" s="44" t="s">
+        <v>768</v>
       </c>
       <c r="B63" s="40"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
-        <v>295</v>
+      <c r="A64" s="44" t="s">
+        <v>771</v>
       </c>
       <c r="B64" s="40"/>
     </row>
     <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="28" t="s">
-        <v>1061</v>
+      <c r="A65" s="44" t="s">
+        <v>773</v>
       </c>
       <c r="B65" s="40"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
-        <v>1062</v>
+      <c r="A66" s="44" t="s">
+        <v>776</v>
       </c>
       <c r="B66" s="40"/>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="28" t="s">
-        <v>1063</v>
+      <c r="A67" s="44" t="s">
+        <v>780</v>
       </c>
       <c r="B67" s="40"/>
     </row>
     <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21" t="s">
-        <v>738</v>
+      <c r="A68" s="44" t="s">
+        <v>785</v>
       </c>
       <c r="B68" s="40"/>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21" t="s">
-        <v>740</v>
-      </c>
-      <c r="B69" s="38"/>
+      <c r="A69" s="44" t="s">
+        <v>791</v>
+      </c>
+      <c r="B69" s="40"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
-        <v>742</v>
+      <c r="A70" s="44" t="s">
+        <v>795</v>
       </c>
       <c r="B70" s="38"/>
     </row>
     <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21" t="s">
-        <v>744</v>
+      <c r="A71" s="44" t="s">
+        <v>797</v>
       </c>
       <c r="B71" s="38"/>
     </row>
     <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21" t="s">
-        <v>750</v>
+      <c r="A72" s="44" t="s">
+        <v>799</v>
       </c>
       <c r="B72" s="38"/>
     </row>
     <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21" t="s">
-        <v>752</v>
+      <c r="A73" s="44" t="s">
+        <v>804</v>
       </c>
       <c r="B73" s="38"/>
     </row>
     <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21" t="s">
-        <v>754</v>
+      <c r="A74" s="44" t="s">
+        <v>806</v>
       </c>
       <c r="B74" s="38"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="21" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="21" t="s">
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="s">
+      <c r="B75" s="38"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="44" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="44" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="44" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="44" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
+    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="44" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
+    <row r="82" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="44" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
+    <row r="83" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="38" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="28" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
+    <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="38" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="28" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="28" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="25" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
+    <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="44" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
+    <row r="86" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="44" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="25" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
+    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="44" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
+    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="44" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="25" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="28" t="s">
+    <row r="89" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="38" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
+    <row r="90" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="38" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="21" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="21" t="s">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="43" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="21" t="s">
+    <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="44" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="21" t="s">
+    <row r="93" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="44" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="21" t="s">
+    <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="44" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+    <row r="95" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="44" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="21" t="s">
+    <row r="96" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="44" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="21" t="s">
+    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="44" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
+    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="44" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
+    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
+    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="21" t="s">
+    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="44" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
+    <row r="102" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="44" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+    <row r="103" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="44" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
+    <row r="104" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="44" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="21" t="s">
+    <row r="105" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="44" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
+    <row r="106" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="44" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
+    <row r="107" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="44" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="21" t="s">
+    <row r="108" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="44" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
+    <row r="109" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="44" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="21" t="s">
+    <row r="110" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="44" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="21" t="s">
+    <row r="111" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="44" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="21" t="s">
+    <row r="112" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="44" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="18" t="s">
+    <row r="113" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="44" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
+    <row r="114" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="44" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="28" t="s">
+    <row r="115" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="38" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="28" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="28" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="28" t="s">
+    <row r="116" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="38" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="28" t="s">
+    <row r="117" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="38" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="28" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="25" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="22" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="22" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="25" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="25" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="23" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="28" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="21" t="s">
+    <row r="118" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="43" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="21" t="s">
+    <row r="119" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="44" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="21" t="s">
+    <row r="120" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="44" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="21" t="s">
+    <row r="121" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="44" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="21" t="s">
+    <row r="122" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="44" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="21" t="s">
+    <row r="123" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="44" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="18" t="s">
+    <row r="124" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="44" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="21" t="s">
+    <row r="125" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="44" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="21" t="s">
+    <row r="126" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="44" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="21" t="s">
+    <row r="127" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="44" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
+    <row r="128" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="44" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
+    <row r="129" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="44" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="23" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="25" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="25" t="s">
+    <row r="130" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="44" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="30" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="36" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="23" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="25" t="s">
+    <row r="131" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="44" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="25" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="21" t="s">
+    <row r="132" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="43" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="21" t="s">
+    <row r="133" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="44" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="21" t="s">
+    <row r="134" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="44" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="21" t="s">
+    <row r="135" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="44" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="21" t="s">
+    <row r="136" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="44" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="21" t="s">
+    <row r="137" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="44" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="21" t="s">
+    <row r="138" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="44" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="25" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="28" t="s">
+    <row r="139" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="38" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="28" t="s">
+    <row r="140" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="38" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="25" t="s">
+    <row r="141" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="44" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="25" t="s">
+    <row r="142" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="44" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="28" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="37" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="28" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="23" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="28" t="s">
-        <v>1111</v>
+    <row r="143" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="38" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="44" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="38" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="43" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="44" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="44" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="44" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="44" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="44" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="44" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="44" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="44" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="44" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="44" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="44" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="38" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="38" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="38" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="44" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="44" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="44" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="38" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="38" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="44" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="38" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="38" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="38" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="38" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="38" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="38" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="38" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="38" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="38" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="38" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="38" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="38" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="38" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="38" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="38" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="38" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="44" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="44" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="44" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="44" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="44" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="44" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="44" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="44" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="38" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="38" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="38" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="38" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="28" t="s">
-        <v>1112</v>
-      </c>
+      <c r="A196" s="28"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="28" t="s">
-        <v>1113</v>
-      </c>
+      <c r="A197" s="28"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="25" t="s">
-        <v>1114</v>
-      </c>
+      <c r="A198" s="28"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="25" t="s">
-        <v>1115</v>
-      </c>
+      <c r="A199" s="25"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="25" t="s">
-        <v>1116</v>
-      </c>
+      <c r="A200" s="25"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="28" t="s">
-        <v>1117</v>
-      </c>
+      <c r="A201" s="25"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="28" t="s">
-        <v>1118</v>
-      </c>
+      <c r="A202" s="28"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="25" t="s">
-        <v>450</v>
-      </c>
+      <c r="A203" s="28"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="25" t="s">
-        <v>505</v>
-      </c>
+      <c r="A204" s="25"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="25" t="s">
-        <v>521</v>
-      </c>
+      <c r="A205" s="25"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="25" t="s">
-        <v>527</v>
-      </c>
+      <c r="A206" s="25"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="25" t="s">
-        <v>536</v>
-      </c>
+      <c r="A207" s="25"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="21" t="s">
-        <v>454</v>
-      </c>
+      <c r="A208" s="25"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="21" t="s">
-        <v>486</v>
-      </c>
+      <c r="A209" s="21"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="18" t="s">
-        <v>488</v>
-      </c>
+      <c r="A210" s="21"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="21" t="s">
-        <v>490</v>
-      </c>
+      <c r="A211" s="18"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="21" t="s">
-        <v>492</v>
-      </c>
+      <c r="A212" s="21"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="21" t="s">
-        <v>498</v>
-      </c>
+      <c r="A213" s="21"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="21" t="s">
-        <v>517</v>
-      </c>
+      <c r="A214" s="21"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="21" t="s">
-        <v>529</v>
-      </c>
+      <c r="A215" s="21"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="21" t="s">
-        <v>532</v>
-      </c>
+      <c r="A216" s="21"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="21" t="s">
-        <v>538</v>
-      </c>
+      <c r="A217" s="21"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="21" t="s">
-        <v>542</v>
-      </c>
+      <c r="A218" s="21"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="21" t="s">
-        <v>546</v>
-      </c>
+      <c r="A219" s="21"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="25" t="s">
-        <v>1119</v>
-      </c>
+      <c r="A220" s="21"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="23" t="s">
-        <v>1120</v>
-      </c>
+      <c r="A221" s="25"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="23" t="s">
-        <v>1121</v>
-      </c>
+      <c r="A222" s="23"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="28" t="s">
-        <v>1122</v>
-      </c>
+      <c r="A223" s="23"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="28" t="s">
-        <v>1123</v>
-      </c>
+      <c r="A224" s="28"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="25" t="s">
-        <v>1124</v>
-      </c>
+      <c r="A225" s="28"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="30" t="s">
-        <v>1125</v>
-      </c>
+      <c r="A226" s="25"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="28" t="s">
-        <v>1126</v>
-      </c>
+      <c r="A227" s="30"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="27" t="s">
-        <v>1127</v>
-      </c>
+      <c r="A228" s="28"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="30" t="s">
-        <v>1128</v>
-      </c>
+      <c r="A229" s="27"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="28" t="s">
-        <v>1129</v>
-      </c>
+      <c r="A230" s="30"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="28" t="s">
-        <v>1130</v>
-      </c>
+      <c r="A231" s="28"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="28" t="s">
-        <v>1131</v>
-      </c>
+      <c r="A232" s="28"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="28" t="s">
-        <v>1132</v>
-      </c>
+      <c r="A233" s="28"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="28" t="s">
-        <v>1133</v>
-      </c>
+      <c r="A234" s="28"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="23" t="s">
-        <v>1134</v>
-      </c>
+      <c r="A235" s="28"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="23" t="s">
-        <v>1135</v>
-      </c>
+      <c r="A236" s="23"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="28" t="s">
-        <v>1136</v>
-      </c>
+      <c r="A237" s="23"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="28" t="s">
-        <v>1137</v>
-      </c>
+      <c r="A238" s="28"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="28" t="s">
-        <v>1138</v>
-      </c>
+      <c r="A239" s="28"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="28" t="s">
-        <v>1139</v>
-      </c>
+      <c r="A240" s="28"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="25" t="s">
-        <v>1140</v>
-      </c>
+      <c r="A241" s="28"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="22" t="s">
-        <v>1141</v>
-      </c>
+      <c r="A242" s="25"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="25" t="s">
-        <v>1142</v>
-      </c>
+      <c r="A243" s="22"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="22" t="s">
-        <v>1143</v>
-      </c>
+      <c r="A244" s="25"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="25" t="s">
-        <v>470</v>
-      </c>
+      <c r="A245" s="22"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="22" t="s">
-        <v>1144</v>
-      </c>
+      <c r="A246" s="25"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="25" t="s">
-        <v>1145</v>
-      </c>
+      <c r="A247" s="22"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="25" t="s">
-        <v>476</v>
-      </c>
+      <c r="A248" s="25"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="25" t="s">
-        <v>479</v>
-      </c>
+      <c r="A249" s="25"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="22" t="s">
-        <v>481</v>
-      </c>
+      <c r="A250" s="25"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="22" t="s">
-        <v>483</v>
-      </c>
+      <c r="A251" s="22"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="25" t="s">
-        <v>495</v>
-      </c>
+      <c r="A252" s="22"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="25" t="s">
-        <v>500</v>
-      </c>
+      <c r="A253" s="25"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="25" t="s">
-        <v>503</v>
-      </c>
+      <c r="A254" s="25"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="25" t="s">
-        <v>507</v>
-      </c>
+      <c r="A255" s="25"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="25" t="s">
-        <v>509</v>
-      </c>
+      <c r="A256" s="25"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="25" t="s">
-        <v>511</v>
-      </c>
+      <c r="A257" s="25"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="25" t="s">
-        <v>513</v>
-      </c>
+      <c r="A258" s="25"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="22" t="s">
-        <v>515</v>
-      </c>
+      <c r="A259" s="25"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="25" t="s">
-        <v>519</v>
-      </c>
+      <c r="A260" s="22"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="25" t="s">
-        <v>523</v>
-      </c>
+      <c r="A261" s="25"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="22" t="s">
-        <v>525</v>
-      </c>
+      <c r="A262" s="25"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="25" t="s">
-        <v>534</v>
-      </c>
+      <c r="A263" s="22"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="25" t="s">
-        <v>540</v>
-      </c>
+      <c r="A264" s="25"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="25" t="s">
-        <v>544</v>
-      </c>
+      <c r="A265" s="25"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="25" t="s">
-        <v>548</v>
-      </c>
+      <c r="A266" s="25"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="25" t="s">
-        <v>550</v>
-      </c>
+      <c r="A267" s="25"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="25" t="s">
-        <v>552</v>
-      </c>
+      <c r="A268" s="25"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="22" t="s">
-        <v>554</v>
-      </c>
+      <c r="A269" s="25"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="28" t="s">
-        <v>1146</v>
-      </c>
+      <c r="A270" s="22"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="28" t="s">
-        <v>1147</v>
-      </c>
+      <c r="A271" s="28"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="28" t="s">
-        <v>1148</v>
-      </c>
+      <c r="A272" s="28"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="28" t="s">
-        <v>1149</v>
-      </c>
+      <c r="A273" s="28"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="28" t="s">
-        <v>1150</v>
-      </c>
+      <c r="A274" s="28"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="23" t="s">
-        <v>1151</v>
-      </c>
+      <c r="A275" s="28"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A44" r:id="rId1" xr:uid="{2BCDBEBB-130E-413E-946F-DB0BD170F30E}"/>
-    <hyperlink ref="A45" r:id="rId2" xr:uid="{CF6F044F-001E-4196-8D29-6221A6992897}"/>
-    <hyperlink ref="A46" r:id="rId3" xr:uid="{B3582315-6A01-44A7-B22A-20D4F0DBDDA5}"/>
-    <hyperlink ref="A47" r:id="rId4" xr:uid="{6B30FEC2-BFB4-486E-AAD3-C4F28720EB17}"/>
-    <hyperlink ref="A48" r:id="rId5" xr:uid="{2FE27E8A-E0F5-4105-AADF-8726E1F7045C}"/>
-    <hyperlink ref="A49" r:id="rId6" xr:uid="{E6EB1B8F-9F88-4C44-B780-A484B5EA29FE}"/>
-    <hyperlink ref="A50" r:id="rId7" xr:uid="{3BB93798-187F-4A7D-8800-A46FBDBCD45D}"/>
-    <hyperlink ref="A51" r:id="rId8" xr:uid="{41606435-DA20-4345-9D76-4CE32509D58D}"/>
-    <hyperlink ref="A53" r:id="rId9" xr:uid="{1250DD27-EB06-4667-9190-C3F30903996D}"/>
-    <hyperlink ref="A54" r:id="rId10" xr:uid="{BB370B96-CCE1-4BAC-838A-A5CB28A877E3}"/>
-    <hyperlink ref="A55" r:id="rId11" xr:uid="{71E9C110-E717-456E-9E4C-70CFD1CC8577}"/>
-    <hyperlink ref="A56" r:id="rId12" xr:uid="{5C607ED5-B2E1-47A7-8962-81C87B04ED3E}"/>
-    <hyperlink ref="A57" r:id="rId13" xr:uid="{260CDD1D-4C39-46F7-9EA9-2A16058F846B}"/>
-    <hyperlink ref="A65" r:id="rId14" xr:uid="{A1006F3F-8C9B-4BF0-AEC3-86F4070B228F}"/>
-    <hyperlink ref="A66" r:id="rId15" xr:uid="{85681570-C913-455C-95D3-0DC5254690E3}"/>
-    <hyperlink ref="A67" r:id="rId16" xr:uid="{FA0B872B-C6BA-4AA5-AAA0-412EA04A9517}"/>
-    <hyperlink ref="A98" r:id="rId17" xr:uid="{1D47439F-1276-4609-9613-881A8F44106C}"/>
-    <hyperlink ref="A99" r:id="rId18" xr:uid="{C2C6F6F3-431E-4A3A-8434-7CF55CF7FD74}"/>
-    <hyperlink ref="A100" r:id="rId19" xr:uid="{2576A9E2-82FD-463B-916A-14F20677F54E}"/>
-    <hyperlink ref="A101" r:id="rId20" xr:uid="{86B01764-9201-4D6A-9CBD-58D17D492664}"/>
-    <hyperlink ref="A102" r:id="rId21" xr:uid="{414F7B7A-6617-479A-9B72-5705C4C693BC}"/>
-    <hyperlink ref="A103" r:id="rId22" xr:uid="{89319F2F-D530-4B63-99A4-79239F49E2A9}"/>
-    <hyperlink ref="A104" r:id="rId23" xr:uid="{0A6A182E-1DA0-49AC-BBBB-AB63D468C98F}"/>
-    <hyperlink ref="A105" r:id="rId24" xr:uid="{B17289D3-340C-49E2-BD60-ECD592145C31}"/>
-    <hyperlink ref="A106" r:id="rId25" xr:uid="{A62B0D75-194B-4591-AEEF-CFD4C1501630}"/>
-    <hyperlink ref="A107" r:id="rId26" xr:uid="{78A5F4F4-9E95-4239-8DA5-200225B21757}"/>
-    <hyperlink ref="A118" r:id="rId27" xr:uid="{4DFC16B5-8989-462C-B6DA-E9474C9264BF}"/>
-    <hyperlink ref="A119" r:id="rId28" xr:uid="{82411A3C-1805-49A3-86A5-F977123F8A5E}"/>
-    <hyperlink ref="A120" r:id="rId29" xr:uid="{C8B3E48C-8BE1-45C7-944B-0076DE70A834}"/>
-    <hyperlink ref="A146" r:id="rId30" xr:uid="{A494453B-3933-4635-A2C7-CD28FED62A18}"/>
-    <hyperlink ref="A147" r:id="rId31" xr:uid="{F4AC3A33-F5E3-4413-8A43-4360812D1D86}"/>
-    <hyperlink ref="A148" r:id="rId32" xr:uid="{FF9466DD-367E-49E9-8A7A-EC01AA6FAC48}"/>
-    <hyperlink ref="A149" r:id="rId33" xr:uid="{260BBDED-EDFE-46D4-9E4D-FA9D2C96A369}"/>
-    <hyperlink ref="A150" r:id="rId34" xr:uid="{60BDEBBB-BE97-4F74-A889-1824885FEF93}"/>
-    <hyperlink ref="A151" r:id="rId35" xr:uid="{B07A8037-C667-439B-9307-2512F1C5CDC1}"/>
-    <hyperlink ref="A157" r:id="rId36" xr:uid="{1A6AA4C1-BA98-46B1-83C8-8AA541D6C92D}"/>
-    <hyperlink ref="A158" r:id="rId37" xr:uid="{4B917FDD-0711-499C-A23E-7BF1C367131A}"/>
-    <hyperlink ref="A171" r:id="rId38" xr:uid="{3048E5C2-9DBC-4058-A544-0181F7FA1524}"/>
-    <hyperlink ref="A174" r:id="rId39" xr:uid="{7447E9AC-68B1-439A-BEBF-56CFC277AD7A}"/>
-    <hyperlink ref="A175" r:id="rId40" xr:uid="{80553CC8-5D28-485A-A732-2B7411451598}"/>
-    <hyperlink ref="A176" r:id="rId41" xr:uid="{14279CF0-29E2-4369-B9D1-53BD0AF3D14C}"/>
-    <hyperlink ref="A187" r:id="rId42" xr:uid="{2A863823-2649-4EFF-B5F1-2FD795B5DFEA}"/>
-    <hyperlink ref="A188" r:id="rId43" xr:uid="{610E4638-1FDE-4B8C-95FC-11810D3B4E63}"/>
-    <hyperlink ref="A191" r:id="rId44" xr:uid="{AE146EAE-B786-4A73-A563-BBD4E51164D8}"/>
-    <hyperlink ref="A192" r:id="rId45" xr:uid="{D2B6FD27-E88C-4E5B-AF28-975721A3A85F}"/>
-    <hyperlink ref="A193" r:id="rId46" xr:uid="{D23DC999-29AF-4610-BD38-04F389B37149}"/>
-    <hyperlink ref="A194" r:id="rId47" xr:uid="{A41405C9-793F-4DD1-9AF6-2BB62E1607C1}"/>
-    <hyperlink ref="A195" r:id="rId48" xr:uid="{0F1DF854-F181-4F85-B16A-032F8383C88E}"/>
-    <hyperlink ref="A196" r:id="rId49" xr:uid="{8D591F37-9DBB-47AB-B0C5-E74611C88F8C}"/>
-    <hyperlink ref="A197" r:id="rId50" xr:uid="{90AA9D67-33B6-4E86-983C-96A986F96939}"/>
-    <hyperlink ref="A201" r:id="rId51" xr:uid="{600EAA05-F002-4DC9-8D21-DAC5EA435EE7}"/>
-    <hyperlink ref="A202" r:id="rId52" xr:uid="{21357669-0565-4BAB-B773-147C2DC5A64A}"/>
-    <hyperlink ref="A221" r:id="rId53" xr:uid="{D99D9C4F-3139-4C7B-ACF0-90D05685CF1C}"/>
-    <hyperlink ref="A222" r:id="rId54" xr:uid="{05743BB6-6D36-427E-9BF3-3C91FC642C74}"/>
-    <hyperlink ref="A223" r:id="rId55" xr:uid="{5BA186B7-2933-4811-A15D-52710D6595C9}"/>
-    <hyperlink ref="A224" r:id="rId56" xr:uid="{57970171-4D51-426E-9D70-BA4BCA0FE423}"/>
-    <hyperlink ref="A226" r:id="rId57" xr:uid="{FC3F68DB-9248-4C0E-AC0C-BD35C1D55245}"/>
-    <hyperlink ref="A227" r:id="rId58" xr:uid="{BB6A146F-6F5A-44A2-995D-593E833A8D58}"/>
-    <hyperlink ref="A228" r:id="rId59" xr:uid="{33F0016C-A0F9-4C02-8236-5BB339DC966E}"/>
-    <hyperlink ref="A229" r:id="rId60" xr:uid="{A74D8AB2-E9C8-4433-AF7E-8DDDD08B1102}"/>
-    <hyperlink ref="A230" r:id="rId61" xr:uid="{F2AF650E-66F8-44A5-984A-2155D5E9CCC5}"/>
-    <hyperlink ref="A231" r:id="rId62" xr:uid="{10055930-32C5-456D-83BA-13AE0432B82D}"/>
-    <hyperlink ref="A232" r:id="rId63" xr:uid="{A0A7A485-1FEB-43D6-81A3-73D0EAEFE98B}"/>
-    <hyperlink ref="A233" r:id="rId64" xr:uid="{5BB761A6-B8C5-47FF-A820-DECE00B8FC45}"/>
-    <hyperlink ref="A234" r:id="rId65" xr:uid="{65DBA719-690F-4F02-9B44-9B1F990CDC4B}"/>
-    <hyperlink ref="A235" r:id="rId66" xr:uid="{948893C5-E8F0-4EF1-970D-1D5160830622}"/>
-    <hyperlink ref="A236" r:id="rId67" xr:uid="{5ECF2569-AF31-4DE1-BB98-27521DDCE8F6}"/>
-    <hyperlink ref="A237" r:id="rId68" xr:uid="{72E1BA7C-2419-4BD6-97B7-A87D07CE4EE4}"/>
-    <hyperlink ref="A238" r:id="rId69" xr:uid="{32873B49-4062-45B5-9395-DAEA21AC1003}"/>
-    <hyperlink ref="A239" r:id="rId70" xr:uid="{AC308DD3-DA5C-4F57-81CC-B6206371A4F0}"/>
-    <hyperlink ref="A240" r:id="rId71" xr:uid="{C016335D-1946-4731-AECE-63F882F7CF5E}"/>
-    <hyperlink ref="A270" r:id="rId72" xr:uid="{6F7EF13A-A5D4-4FF4-8275-D32757748118}"/>
-    <hyperlink ref="A271" r:id="rId73" xr:uid="{24D2EF78-3EBA-4C5B-92B4-F536C38566A7}"/>
-    <hyperlink ref="A272" r:id="rId74" xr:uid="{7818A63E-C352-4792-ADF7-A46D34865285}"/>
-    <hyperlink ref="A273" r:id="rId75" xr:uid="{A5704A2F-75A6-4D5E-8112-6D92876945EC}"/>
-    <hyperlink ref="A274" r:id="rId76" xr:uid="{1CC095D6-BF82-48D3-BCBC-4501F4B3D693}"/>
-    <hyperlink ref="A275" r:id="rId77" xr:uid="{F89D42C9-D11E-4BD4-B29E-4A04B6582987}"/>
+    <hyperlink ref="A43" r:id="rId1" display="http://qsr.to/" xr:uid="{515F2238-3899-4F1B-B86C-C4E51A3DDCC5}"/>
+    <hyperlink ref="A44" r:id="rId2" display="http://lren3.sa/" xr:uid="{42D5F0E9-3945-4F41-A014-E8CFFB13B6B5}"/>
+    <hyperlink ref="A45" r:id="rId3" display="http://mglu3.sa/" xr:uid="{973D85B1-5811-4F95-94C0-E137D1319CEE}"/>
+    <hyperlink ref="A46" r:id="rId4" display="http://heromotoco.bo/" xr:uid="{BE65BED2-8BDB-4EE8-A99E-304576DA1677}"/>
+    <hyperlink ref="A47" r:id="rId5" display="http://vow3.de/" xr:uid="{A964C9F1-42B3-4517-B4EC-E89C9632BE68}"/>
+    <hyperlink ref="A52" r:id="rId6" display="http://000333.sz/" xr:uid="{99C65042-F2CC-4EBD-BE80-9B1B82A62733}"/>
+    <hyperlink ref="A83" r:id="rId7" display="http://ccro3.sa/" xr:uid="{8DD70478-1265-4E28-A05A-32C31B14159A}"/>
+    <hyperlink ref="A84" r:id="rId8" display="http://rail3.sa/" xr:uid="{1CE7F3E4-9999-4125-9A49-F19865C94B85}"/>
+    <hyperlink ref="A89" r:id="rId9" display="http://600009.ss/" xr:uid="{5E9AB96C-19DE-4F17-9827-0341C98BF3DD}"/>
+    <hyperlink ref="A90" r:id="rId10" display="http://cjt.to/" xr:uid="{F1C131C7-26E1-4470-A644-6A96C09814C2}"/>
+    <hyperlink ref="A115" r:id="rId11" display="http://hype3.sa/" xr:uid="{5C57194B-1086-4670-B768-1DAE65A7B3F3}"/>
+    <hyperlink ref="A116" r:id="rId12" display="http://drreddy.bo/" xr:uid="{7793374D-56F8-415D-AC5C-695F45B581F1}"/>
+    <hyperlink ref="A117" r:id="rId13" display="http://granules.bo/" xr:uid="{0FEDD6AD-41AC-4035-8E7B-06AAFD2B4FAB}"/>
+    <hyperlink ref="A139" r:id="rId14" display="http://sbsp3.sa/" xr:uid="{914228D0-22F8-4A37-860A-91B998AA8276}"/>
+    <hyperlink ref="A140" r:id="rId15" display="http://cpfe3.sa/" xr:uid="{AEBE3D0C-BE23-4767-942E-7FEC628EA433}"/>
+    <hyperlink ref="A143" r:id="rId16" display="http://tatapower.bo/" xr:uid="{96E4E1F1-9226-4283-B088-891599FC386C}"/>
+    <hyperlink ref="A145" r:id="rId17" display="http://cu.to/" xr:uid="{D707CDB8-59BC-4071-A960-5A29091BF270}"/>
+    <hyperlink ref="A159" r:id="rId18" display="http://irbr3.sa/" xr:uid="{0BCE294C-FE0E-47E5-823D-7FA633A508D1}"/>
+    <hyperlink ref="A160" r:id="rId19" display="http://pssa3.sa/" xr:uid="{C67F32CD-7AFD-44EC-8186-903EDD9A2F23}"/>
+    <hyperlink ref="A161" r:id="rId20" display="http://pel.bo/" xr:uid="{EA6845F2-17A3-4BC5-9B93-5AF86CA8F4F0}"/>
+    <hyperlink ref="A165" r:id="rId21" display="http://ffh.to/" xr:uid="{E7C78B01-5464-44AC-A0BA-AC755A6E5CCD}"/>
+    <hyperlink ref="A166" r:id="rId22" display="http://gwo.to/" xr:uid="{896455ED-25C1-490E-8682-5D87D6D65E6C}"/>
+    <hyperlink ref="A168" r:id="rId23" display="http://bpac11.sa/" xr:uid="{E282B97D-9008-4751-B56F-6C1EB7F4A898}"/>
+    <hyperlink ref="A169" r:id="rId24" display="http://bzla.be/" xr:uid="{88C3141D-BF83-45F9-A621-86AC0346A36B}"/>
+    <hyperlink ref="A170" r:id="rId25" display="http://dbsa.be/" xr:uid="{68D22390-EB93-4F12-BBB3-BCFA90B0EF0E}"/>
+    <hyperlink ref="A171" r:id="rId26" display="http://brea.be/" xr:uid="{5D897CF4-08B2-49C0-ADC5-0A5C09A5DEA1}"/>
+    <hyperlink ref="A172" r:id="rId27" display="http://pfc.bo/" xr:uid="{4997FC5C-5D0A-4B47-A17A-8C89A12C01A2}"/>
+    <hyperlink ref="A173" r:id="rId28" display="http://axisbank.bo/" xr:uid="{3C9869F2-A1D1-4A67-97CE-B9A26CF5A3DC}"/>
+    <hyperlink ref="A174" r:id="rId29" display="http://bajajfinsv.bo/" xr:uid="{B93ED563-C028-4F45-AF31-1B9FB3B385C1}"/>
+    <hyperlink ref="A175" r:id="rId30" display="http://hdfcbank.bo/" xr:uid="{9E921575-91F2-488C-AF3F-EC9CCE310A69}"/>
+    <hyperlink ref="A176" r:id="rId31" display="http://icicibank.bo/" xr:uid="{5E21F30A-A63C-48A9-BFE5-A109BBA381C6}"/>
+    <hyperlink ref="A177" r:id="rId32" display="http://kotakbank.bo/" xr:uid="{9C808B19-AA9F-483D-80FF-FD583ED3C7D9}"/>
+    <hyperlink ref="A178" r:id="rId33" display="http://mfsl.bo/" xr:uid="{E2CF1729-0897-423E-8765-573D5689D5C7}"/>
+    <hyperlink ref="A179" r:id="rId34" display="http://rir.bo/" xr:uid="{08CBBA02-CB3A-4452-857A-A30B082F9A9A}"/>
+    <hyperlink ref="A180" r:id="rId35" display="http://sbin.bo/" xr:uid="{E91ED827-CE70-435D-92A8-A5657EA4D50B}"/>
+    <hyperlink ref="A181" r:id="rId36" display="http://yesbank.bo/" xr:uid="{A3AD7857-17A1-473F-B719-CF0023F5FF2A}"/>
+    <hyperlink ref="A182" r:id="rId37" display="http://0939.hk/" xr:uid="{77564D70-5BE7-420F-A831-4C5179470E34}"/>
+    <hyperlink ref="A183" r:id="rId38" display="http://2318.hk/" xr:uid="{891558A8-11D5-45FC-8C38-93DF544257C5}"/>
+    <hyperlink ref="A192" r:id="rId39" display="http://002142.sz/" xr:uid="{31ED2F47-4F3A-4ADD-A794-B6ACEE801491}"/>
+    <hyperlink ref="A193" r:id="rId40" display="http://bns.to/" xr:uid="{ECABE740-21A2-4D3A-A037-A6CA18DB8F16}"/>
+    <hyperlink ref="A194" r:id="rId41" display="http://cwb.to/" xr:uid="{B303EDB7-5EDB-405C-ACB9-9214FEF6C7ED}"/>
+    <hyperlink ref="A195" r:id="rId42" display="http://ry.to/" xr:uid="{FCB9F419-7604-4D02-81B4-245326E2965C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35020,8 +34857,8 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C67"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35039,7 +34876,7 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>1153</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -36714,7 +36551,7 @@
       <c r="A44" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="41" t="s">
         <v>91</v>
       </c>
       <c r="C44" s="23" t="s">
@@ -36753,7 +36590,7 @@
       <c r="A45" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="41" t="s">
         <v>98</v>
       </c>
       <c r="C45" s="26" t="s">
@@ -36792,7 +36629,7 @@
       <c r="A46" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="41">
         <v>532848</v>
       </c>
       <c r="C46" s="27" t="s">
@@ -36831,7 +36668,7 @@
       <c r="A47" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="41" t="s">
         <v>104</v>
       </c>
       <c r="C47" s="28" t="s">
@@ -36870,7 +36707,7 @@
       <c r="A48" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="41" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -36910,7 +36747,7 @@
       <c r="A49" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="41" t="s">
         <v>114</v>
       </c>
       <c r="C49" s="28" t="s">
@@ -36949,7 +36786,7 @@
       <c r="A50" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C50" s="26" t="s">
@@ -36988,7 +36825,7 @@
       <c r="A51" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="41" t="s">
         <v>120</v>
       </c>
       <c r="C51" s="28" t="s">
@@ -37027,7 +36864,7 @@
       <c r="A52" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="41" t="s">
         <v>125</v>
       </c>
       <c r="C52" s="22" t="s">
@@ -37066,7 +36903,7 @@
       <c r="A53" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="41" t="s">
         <v>128</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -37105,7 +36942,7 @@
       <c r="A54" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="41" t="s">
         <v>130</v>
       </c>
       <c r="C54" s="28" t="s">
@@ -37144,7 +36981,7 @@
       <c r="A55" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="41" t="s">
         <v>132</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -37183,7 +37020,7 @@
       <c r="A56" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C56" s="30" t="s">
@@ -37222,7 +37059,7 @@
       <c r="A57" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="41" t="s">
         <v>139</v>
       </c>
       <c r="C57" s="28" t="s">
@@ -37261,7 +37098,7 @@
       <c r="A58" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="41" t="s">
         <v>147</v>
       </c>
       <c r="C58" s="25" t="s">
@@ -37300,7 +37137,7 @@
       <c r="A59" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="41" t="s">
         <v>149</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -37339,7 +37176,7 @@
       <c r="A60" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="41" t="s">
         <v>153</v>
       </c>
       <c r="C60" s="22" t="s">
@@ -37378,7 +37215,7 @@
       <c r="A61" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="41" t="s">
         <v>159</v>
       </c>
       <c r="C61" s="25" t="s">
@@ -37417,7 +37254,7 @@
       <c r="A62" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="41" t="s">
         <v>161</v>
       </c>
       <c r="C62" s="25" t="s">
@@ -37456,7 +37293,7 @@
       <c r="A63" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="41" t="s">
         <v>222</v>
       </c>
       <c r="C63" s="25" t="s">
@@ -37495,7 +37332,7 @@
       <c r="A64" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="41" t="s">
         <v>295</v>
       </c>
       <c r="C64" s="25" t="s">
@@ -37534,7 +37371,7 @@
       <c r="A65" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="41" t="s">
         <v>318</v>
       </c>
       <c r="C65" s="28" t="s">
@@ -37573,7 +37410,7 @@
       <c r="A66" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="41" t="s">
         <v>321</v>
       </c>
       <c r="C66" s="28" t="s">
@@ -37612,7 +37449,7 @@
       <c r="A67" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="41" t="s">
         <v>327</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -37678,7 +37515,7 @@
   </sheetPr>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C54"/>
     </sheetView>
   </sheetViews>
@@ -37697,7 +37534,7 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>1153</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -38965,7 +38802,7 @@
       <c r="A32" s="25" t="s">
         <v>677</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="41" t="s">
         <v>678</v>
       </c>
       <c r="C32" s="28" t="s">
@@ -39006,7 +38843,7 @@
       <c r="A33" s="25" t="s">
         <v>683</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>684</v>
       </c>
       <c r="C33" s="28" t="s">
@@ -39047,7 +38884,7 @@
       <c r="A34" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="41" t="s">
         <v>688</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -39088,7 +38925,7 @@
       <c r="A35" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="41" t="s">
         <v>692</v>
       </c>
       <c r="C35" s="23" t="s">
@@ -39129,7 +38966,7 @@
       <c r="A36" s="25" t="s">
         <v>694</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="41" t="s">
         <v>695</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -39170,7 +39007,7 @@
       <c r="A37" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>699</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -39211,7 +39048,7 @@
       <c r="A38" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="41" t="s">
         <v>702</v>
       </c>
       <c r="C38" s="23" t="s">
@@ -39252,7 +39089,7 @@
       <c r="A39" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="41" t="s">
         <v>705</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -39293,7 +39130,7 @@
       <c r="A40" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="41" t="s">
         <v>708</v>
       </c>
       <c r="C40" s="28" t="s">
@@ -39334,7 +39171,7 @@
       <c r="A41" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="41" t="s">
         <v>710</v>
       </c>
       <c r="C41" s="28" t="s">
@@ -39375,7 +39212,7 @@
       <c r="A42" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="41" t="s">
         <v>713</v>
       </c>
       <c r="C42" s="25" t="s">
@@ -39416,7 +39253,7 @@
       <c r="A43" s="25" t="s">
         <v>717</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="41" t="s">
         <v>718</v>
       </c>
       <c r="C43" s="25" t="s">
@@ -39457,7 +39294,7 @@
       <c r="A44" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="41" t="s">
         <v>721</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -39498,7 +39335,7 @@
       <c r="A45" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="41" t="s">
         <v>723</v>
       </c>
       <c r="C45" s="25" t="s">
@@ -39539,7 +39376,7 @@
       <c r="A46" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="41" t="s">
         <v>726</v>
       </c>
       <c r="C46" s="25" t="s">
@@ -39580,7 +39417,7 @@
       <c r="A47" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="41" t="s">
         <v>733</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -39621,7 +39458,7 @@
       <c r="A48" s="22" t="s">
         <v>734</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="41" t="s">
         <v>735</v>
       </c>
       <c r="C48" s="22" t="s">
@@ -39662,7 +39499,7 @@
       <c r="A49" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="41" t="s">
         <v>759</v>
       </c>
       <c r="C49" s="22" t="s">
@@ -39703,7 +39540,7 @@
       <c r="A50" s="25" t="s">
         <v>777</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="41" t="s">
         <v>778</v>
       </c>
       <c r="C50" s="25" t="s">
@@ -39744,7 +39581,7 @@
       <c r="A51" s="25" t="s">
         <v>818</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="41" t="s">
         <v>819</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -39785,7 +39622,7 @@
       <c r="A52" s="25" t="s">
         <v>826</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="41" t="s">
         <v>827</v>
       </c>
       <c r="C52" s="28" t="s">
@@ -39826,7 +39663,7 @@
       <c r="A53" s="25" t="s">
         <v>830</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="41" t="s">
         <v>831</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -39867,7 +39704,7 @@
       <c r="A54" s="25" t="s">
         <v>834</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="41" t="s">
         <v>835</v>
       </c>
       <c r="C54" s="28" t="s">
@@ -39950,7 +39787,7 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C39"/>
     </sheetView>
   </sheetViews>
@@ -39969,7 +39806,7 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>1153</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -40982,7 +40819,7 @@
       <c r="A27" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="41" t="s">
         <v>568</v>
       </c>
       <c r="C27" s="28" t="s">
@@ -41021,7 +40858,7 @@
       <c r="A28" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="41" t="s">
         <v>573</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -41060,7 +40897,7 @@
       <c r="A29" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="41" t="s">
         <v>575</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -41099,7 +40936,7 @@
       <c r="A30" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="41" t="s">
         <v>577</v>
       </c>
       <c r="C30" s="28" t="s">
@@ -41138,7 +40975,7 @@
       <c r="A31" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="41" t="s">
         <v>579</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -41177,7 +41014,7 @@
       <c r="A32" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="41" t="s">
         <v>581</v>
       </c>
       <c r="C32" s="28" t="s">
@@ -41216,7 +41053,7 @@
       <c r="A33" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>582</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -41255,7 +41092,7 @@
       <c r="A34" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="41" t="s">
         <v>586</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -41294,7 +41131,7 @@
       <c r="A35" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="41" t="s">
         <v>600</v>
       </c>
       <c r="C35" s="22" t="s">
@@ -41333,7 +41170,7 @@
       <c r="A36" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="41" t="s">
         <v>661</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -41372,7 +41209,7 @@
       <c r="A37" s="25" t="s">
         <v>667</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>668</v>
       </c>
       <c r="C37" s="25" t="s">
@@ -41411,7 +41248,7 @@
       <c r="A38" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="41" t="s">
         <v>670</v>
       </c>
       <c r="C38" s="23" t="s">
@@ -41450,7 +41287,7 @@
       <c r="A39" s="25" t="s">
         <v>671</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="41" t="s">
         <v>672</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -41540,7 +41377,7 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>1153</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -42046,7 +41883,7 @@
       <c r="A14" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>333</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -42085,7 +41922,7 @@
       <c r="A15" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>338</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -42124,7 +41961,7 @@
       <c r="A16" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>341</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -42163,7 +42000,7 @@
       <c r="A17" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>344</v>
       </c>
       <c r="C17" s="30" t="s">
@@ -42202,7 +42039,7 @@
       <c r="A18" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>347</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -42241,7 +42078,7 @@
       <c r="A19" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>349</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -42280,7 +42117,7 @@
       <c r="A20" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="41" t="s">
         <v>353</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -42319,7 +42156,7 @@
       <c r="A21" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>360</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -42374,7 +42211,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42392,7 +42229,7 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>1153</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -42699,7 +42536,7 @@
       <c r="A9" s="25" t="s">
         <v>966</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>967</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -42738,7 +42575,7 @@
       <c r="A10" s="25" t="s">
         <v>970</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>971</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -42777,7 +42614,7 @@
       <c r="A11" s="25" t="s">
         <v>973</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>974</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -42816,7 +42653,7 @@
       <c r="A12" s="25" t="s">
         <v>975</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>976</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -42855,7 +42692,7 @@
       <c r="A13" s="25" t="s">
         <v>979</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>980</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -42894,7 +42731,7 @@
       <c r="A14" s="25" t="s">
         <v>981</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>982</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -42933,7 +42770,7 @@
       <c r="A15" s="25" t="s">
         <v>984</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>985</v>
       </c>
       <c r="C15" s="37" t="s">
@@ -42972,7 +42809,7 @@
       <c r="A16" s="25" t="s">
         <v>987</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>988</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -43011,7 +42848,7 @@
       <c r="A17" s="22" t="s">
         <v>989</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>990</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -43050,7 +42887,7 @@
       <c r="A18" s="25" t="s">
         <v>991</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>992</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -43089,7 +42926,7 @@
       <c r="A19" s="25" t="s">
         <v>993</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>994</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -43128,7 +42965,7 @@
       <c r="A20" s="25" t="s">
         <v>995</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="41" t="s">
         <v>996</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -43167,7 +43004,7 @@
       <c r="A21" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>998</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -43206,7 +43043,7 @@
       <c r="A22" s="25" t="s">
         <v>1001</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="41" t="s">
         <v>1002</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -43245,7 +43082,7 @@
       <c r="A23" s="25" t="s">
         <v>1003</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="41" t="s">
         <v>1004</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -43284,7 +43121,7 @@
       <c r="A24" s="25" t="s">
         <v>1032</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="41" t="s">
         <v>1033</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -43323,7 +43160,7 @@
       <c r="A25" s="25" t="s">
         <v>1034</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="41" t="s">
         <v>1035</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -43397,8 +43234,8 @@
   </sheetPr>
   <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43416,7 +43253,7 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>1153</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -44115,7 +43952,7 @@
       <c r="A19" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>399</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -44154,7 +43991,7 @@
       <c r="A20" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="41" t="s">
         <v>405</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -44193,7 +44030,7 @@
       <c r="A21" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>408</v>
       </c>
       <c r="C21" s="23" t="s">
@@ -44232,7 +44069,7 @@
       <c r="A22" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="41" t="s">
         <v>412</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -44271,7 +44108,7 @@
       <c r="A23" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="41" t="s">
         <v>414</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -44310,7 +44147,7 @@
       <c r="A24" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="41" t="s">
         <v>416</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -44349,7 +44186,7 @@
       <c r="A25" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="41" t="s">
         <v>420</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -44388,7 +44225,7 @@
       <c r="A26" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="41" t="s">
         <v>423</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -44427,7 +44264,7 @@
       <c r="A27" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="41">
         <v>532810</v>
       </c>
       <c r="C27" s="27" t="s">
@@ -44466,7 +44303,7 @@
       <c r="A28" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="41" t="s">
         <v>428</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -44505,7 +44342,7 @@
       <c r="A29" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="41" t="s">
         <v>430</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -44544,7 +44381,7 @@
       <c r="A30" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="41" t="s">
         <v>433</v>
       </c>
       <c r="C30" s="28" t="s">
@@ -44583,7 +44420,7 @@
       <c r="A31" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="41" t="s">
         <v>435</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -44622,7 +44459,7 @@
       <c r="A32" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="41" t="s">
         <v>437</v>
       </c>
       <c r="C32" s="28" t="s">
@@ -44661,7 +44498,7 @@
       <c r="A33" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>439</v>
       </c>
       <c r="C33" s="28" t="s">
@@ -44700,7 +44537,7 @@
       <c r="A34" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="41" t="s">
         <v>442</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -44739,7 +44576,7 @@
       <c r="A35" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="41" t="s">
         <v>444</v>
       </c>
       <c r="C35" s="23" t="s">
@@ -44778,7 +44615,7 @@
       <c r="A36" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="41" t="s">
         <v>446</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -44817,7 +44654,7 @@
       <c r="A37" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>448</v>
       </c>
       <c r="C37" s="28" t="s">
@@ -44856,7 +44693,7 @@
       <c r="A38" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="41" t="s">
         <v>457</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -44895,7 +44732,7 @@
       <c r="A39" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="41" t="s">
         <v>459</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -44934,7 +44771,7 @@
       <c r="A40" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="41" t="s">
         <v>461</v>
       </c>
       <c r="C40" s="25" t="s">
@@ -44973,7 +44810,7 @@
       <c r="A41" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="41" t="s">
         <v>463</v>
       </c>
       <c r="C41" s="22" t="s">
@@ -45012,7 +44849,7 @@
       <c r="A42" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="41" t="s">
         <v>466</v>
       </c>
       <c r="C42" s="25" t="s">
@@ -45051,7 +44888,7 @@
       <c r="A43" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="41" t="s">
         <v>468</v>
       </c>
       <c r="C43" s="22" t="s">
@@ -45090,7 +44927,7 @@
       <c r="A44" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="41" t="s">
         <v>470</v>
       </c>
       <c r="C44" s="25" t="s">
@@ -45129,7 +44966,7 @@
       <c r="A45" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="41" t="s">
         <v>472</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -45168,7 +45005,7 @@
       <c r="A46" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="41" t="s">
         <v>474</v>
       </c>
       <c r="C46" s="25" t="s">
@@ -45207,7 +45044,7 @@
       <c r="A47" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="41" t="s">
         <v>476</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -45246,7 +45083,7 @@
       <c r="A48" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="41" t="s">
         <v>479</v>
       </c>
       <c r="C48" s="25" t="s">
@@ -45285,7 +45122,7 @@
       <c r="A49" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="41" t="s">
         <v>481</v>
       </c>
       <c r="C49" s="22" t="s">
@@ -45324,7 +45161,7 @@
       <c r="A50" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="41" t="s">
         <v>483</v>
       </c>
       <c r="C50" s="22" t="s">
@@ -45363,7 +45200,7 @@
       <c r="A51" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="41" t="s">
         <v>495</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -45402,7 +45239,7 @@
       <c r="A52" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="41" t="s">
         <v>500</v>
       </c>
       <c r="C52" s="25" t="s">
@@ -45441,7 +45278,7 @@
       <c r="A53" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="41" t="s">
         <v>503</v>
       </c>
       <c r="C53" s="25" t="s">
@@ -45480,7 +45317,7 @@
       <c r="A54" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="41" t="s">
         <v>507</v>
       </c>
       <c r="C54" s="25" t="s">
@@ -45519,7 +45356,7 @@
       <c r="A55" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="41" t="s">
         <v>509</v>
       </c>
       <c r="C55" s="25" t="s">
@@ -45558,7 +45395,7 @@
       <c r="A56" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="41" t="s">
         <v>511</v>
       </c>
       <c r="C56" s="25" t="s">
@@ -45597,7 +45434,7 @@
       <c r="A57" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="41" t="s">
         <v>513</v>
       </c>
       <c r="C57" s="25" t="s">
@@ -45636,7 +45473,7 @@
       <c r="A58" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="41" t="s">
         <v>515</v>
       </c>
       <c r="C58" s="22" t="s">
@@ -45675,7 +45512,7 @@
       <c r="A59" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="41" t="s">
         <v>519</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -45714,7 +45551,7 @@
       <c r="A60" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="41" t="s">
         <v>523</v>
       </c>
       <c r="C60" s="25" t="s">
@@ -45753,7 +45590,7 @@
       <c r="A61" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="41" t="s">
         <v>525</v>
       </c>
       <c r="C61" s="22" t="s">
@@ -45792,7 +45629,7 @@
       <c r="A62" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="41" t="s">
         <v>534</v>
       </c>
       <c r="C62" s="25" t="s">
@@ -45831,7 +45668,7 @@
       <c r="A63" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="41" t="s">
         <v>540</v>
       </c>
       <c r="C63" s="25" t="s">
@@ -45870,7 +45707,7 @@
       <c r="A64" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="41" t="s">
         <v>544</v>
       </c>
       <c r="C64" s="25" t="s">
@@ -45909,7 +45746,7 @@
       <c r="A65" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="41" t="s">
         <v>548</v>
       </c>
       <c r="C65" s="25" t="s">
@@ -45948,7 +45785,7 @@
       <c r="A66" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="41" t="s">
         <v>550</v>
       </c>
       <c r="C66" s="25" t="s">
@@ -45987,7 +45824,7 @@
       <c r="A67" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="41" t="s">
         <v>552</v>
       </c>
       <c r="C67" s="25" t="s">
@@ -46026,7 +45863,7 @@
       <c r="A68" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="41" t="s">
         <v>554</v>
       </c>
       <c r="C68" s="22" t="s">
@@ -46065,7 +45902,7 @@
       <c r="A69" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="41" t="s">
         <v>556</v>
       </c>
       <c r="C69" s="28" t="s">
@@ -46104,7 +45941,7 @@
       <c r="A70" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="41" t="s">
         <v>558</v>
       </c>
       <c r="C70" s="28" t="s">
@@ -46143,7 +45980,7 @@
       <c r="A71" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="41" t="s">
         <v>560</v>
       </c>
       <c r="C71" s="28" t="s">
@@ -46182,7 +46019,7 @@
       <c r="A72" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="41" t="s">
         <v>562</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -46221,7 +46058,7 @@
       <c r="A73" s="25" t="s">
         <v>563</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="41" t="s">
         <v>564</v>
       </c>
       <c r="C73" s="28" t="s">
@@ -46260,7 +46097,7 @@
       <c r="A74" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="41" t="s">
         <v>566</v>
       </c>
       <c r="C74" s="23" t="s">
